--- a/documenten/logboeken/Logboek Alex.xlsx
+++ b/documenten/logboeken/Logboek Alex.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D181761\Documents\GitHub\fifa\project_fifa\documenten\logboeken\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lemon\OneDrive\Documenten\Leerjaar 1\Periode4\project-fifa\project_fifa\documenten\logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Taak</t>
   </si>
@@ -33,6 +33,30 @@
   </si>
   <si>
     <t>Datum</t>
+  </si>
+  <si>
+    <t>Samenwerkingscontract</t>
+  </si>
+  <si>
+    <t>1 uur</t>
+  </si>
+  <si>
+    <t>Bereikbaarheidslijst</t>
+  </si>
+  <si>
+    <t>Plan van aanak</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>2 uur</t>
+  </si>
+  <si>
+    <t>30 min</t>
   </si>
 </sst>
 </file>
@@ -68,8 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -350,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -373,7 +398,52 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42843</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documenten/logboeken/Logboek Alex.xlsx
+++ b/documenten/logboeken/Logboek Alex.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Taak</t>
   </si>
@@ -57,6 +57,36 @@
   </si>
   <si>
     <t>30 min</t>
+  </si>
+  <si>
+    <t>Documentatie</t>
+  </si>
+  <si>
+    <t>PHP code</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>wireframes gemaakt</t>
+  </si>
+  <si>
+    <t>4 uur</t>
+  </si>
+  <si>
+    <t>4 dagen</t>
+  </si>
+  <si>
+    <t>5 dagen</t>
+  </si>
+  <si>
+    <t>5/2/2017 - 5/5/2017</t>
+  </si>
+  <si>
+    <t>5/8/2017 - 5/12/2017</t>
+  </si>
+  <si>
+    <t>5/15/2017 - 5/19/2017</t>
   </si>
 </sst>
 </file>
@@ -375,19 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.21875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="1" max="1" width="62.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -409,7 +439,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -420,7 +450,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -431,7 +461,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -440,6 +470,83 @@
       </c>
       <c r="C5" s="1">
         <v>42843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
